--- a/Zeitplan.xlsx
+++ b/Zeitplan.xlsx
@@ -378,7 +378,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -392,13 +392,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -409,13 +409,13 @@
         <v>34</v>
       </c>
       <c r="B2">
+        <v>13</v>
+      </c>
+      <c r="C2">
+        <v>14</v>
+      </c>
+      <c r="D2">
         <v>15</v>
-      </c>
-      <c r="C2">
-        <v>13</v>
-      </c>
-      <c r="D2">
-        <v>14</v>
       </c>
       <c r="E2">
         <v>10</v>
@@ -433,10 +433,10 @@
         <v>9</v>
       </c>
       <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="D3">
         <v>9</v>
-      </c>
-      <c r="D3">
-        <v>8</v>
       </c>
       <c r="E3">
         <v>8</v>
@@ -452,18 +452,18 @@
       </c>
       <c r="B4" s="2">
         <f>B2/B3</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="C4" s="2">
+        <f>C2/C3</f>
+        <v>1.75</v>
+      </c>
+      <c r="D4" s="2">
+        <f>D2/D3</f>
         <v>1.6666666666666667</v>
       </c>
-      <c r="C4" s="2">
-        <f t="shared" ref="C4:E4" si="0">C2/C3</f>
-        <v>1.4444444444444444</v>
-      </c>
-      <c r="D4" s="2">
-        <f t="shared" si="0"/>
-        <v>1.75</v>
-      </c>
       <c r="E4" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C4:E4" si="0">E2/E3</f>
         <v>1.25</v>
       </c>
       <c r="F4" t="s">
